--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/Tester/Template-TestCase.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/Tester/Template-TestCase.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="8580" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="8580" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Usecase 1" sheetId="1" r:id="rId1"/>
     <sheet name="Usecase 2" sheetId="5" r:id="rId2"/>
     <sheet name="Usecase 3" sheetId="4" r:id="rId3"/>
     <sheet name="Usecase 4" sheetId="3" r:id="rId4"/>
-    <sheet name="Define" sheetId="2" r:id="rId5"/>
+    <sheet name="Usecase 5" sheetId="6" r:id="rId5"/>
+    <sheet name="Define" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="42">
   <si>
     <t>Usecase</t>
   </si>
@@ -100,24 +101,6 @@
     <t>Dev nhập</t>
   </si>
   <si>
-    <t>Nhập chuỗi ký tự không phải là ID tài khoản</t>
-  </si>
-  <si>
-    <t>Nhập sai mật khẩu</t>
-  </si>
-  <si>
-    <t>Không nhập tài khoản, hoặc không nhập mật khẩu, hoặc không nhập cả hai</t>
-  </si>
-  <si>
-    <t>Cảnh báo tài khoản không tồn tại</t>
-  </si>
-  <si>
-    <t>Cảnh báo sai mật khẩu</t>
-  </si>
-  <si>
-    <t>Cảnh báo nhập thông tin</t>
-  </si>
-  <si>
     <t>Đăng nhập</t>
   </si>
   <si>
@@ -131,6 +114,57 @@
   </si>
   <si>
     <t>Thông báo tạo tài khoản thành công nhưng không có tài khoản nào được tạo ra, sai về mặt logic</t>
+  </si>
+  <si>
+    <t>Trương Ý Nhi</t>
+  </si>
+  <si>
+    <t>Đọc dữ liệu văn bản tiếng Việt từ file .txt</t>
+  </si>
+  <si>
+    <t>Không hiển thị được nội dung file .txt do không encode được ký tự Unicode (tiếng Việt). Tuy nhiên vẫn có thể lưu/truy vấn các ký tự chưa được encode này vào/từ database.</t>
+  </si>
+  <si>
+    <t>Ban hành văn bản thông tin</t>
+  </si>
+  <si>
+    <t>Khi có lỗi không thể hiển thị văn bản thì sẽ kéo theo lỗi giao diện không hiển thị hình ảnh của văn bản (nếu có), phải thực hiện thao tác lăn chuột vào vùng nội dung văn bản thì hình ảnh mới được hiển thị</t>
+  </si>
+  <si>
+    <t>Văn bản thông tin không hiển thị nội dung text thì sẽ không hiển thị nội dung hình ảnh (nếu có)</t>
+  </si>
+  <si>
+    <t>Không fix được lỗi trên thì lỗi này cũng không fix được đâu, còn fix được lỗi trên thì lỗi này tự động biến mất. Em thề!</t>
+  </si>
+  <si>
+    <t>Em chưa fix được :((</t>
+  </si>
+  <si>
+    <t>Tra cứu thông tin tiêm chủng của công dân</t>
+  </si>
+  <si>
+    <t>Tra cứu thông tin tiêm chủng của một công dân có tồn tại trong hệ thống</t>
+  </si>
+  <si>
+    <t>JPanel thông tin công dân có trả về, bên trong JPanel có 1 JScrollPane dùng để gắn 1 JPanel khác gồm các thông tin mũi tiêm của công dân đó, JPanel này không hiển thị cho đến khi lăn chuột vào trong vùng JScrollPane này</t>
+  </si>
+  <si>
+    <t>16/06/202</t>
+  </si>
+  <si>
+    <t>Em không hiểu tại sao ở view khác nó tự hiện lên được còn copy đem sang view này thì nó lại không tự hiện lên, em đã thử dùng các lệnh repaint(), validate(), revalidate() các kiểu vẫn không ăn thua</t>
+  </si>
+  <si>
+    <t>Sau khi lăn chuột tại view tra cứu thông tin tiêm chủng của công dân</t>
+  </si>
+  <si>
+    <t>Một view khác cũng sử dụng cấu trúc tương tự, khi bấm vào có thể tự hiện lên ngay lập tức đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>Thống kê số liệu với số ngày là số âm</t>
+  </si>
+  <si>
+    <t>Thông tin số liệu vẫn trả về trống không chứ không báo lỗi</t>
   </si>
 </sst>
 </file>
@@ -367,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -440,11 +474,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -757,8 +827,8 @@
       <xdr:rowOff>209549</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>841601</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>317726</xdr:colOff>
       <xdr:row>33</xdr:row>
       <xdr:rowOff>299</xdr:rowOff>
     </xdr:to>
@@ -778,6 +848,363 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1952625" y="1457324"/>
+          <a:ext cx="7804376" cy="5220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1362075</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>89126</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>200325</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2200275" y="1447800"/>
+          <a:ext cx="7804376" cy="5220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>262398</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13496925" y="1457325"/>
+          <a:ext cx="3891423" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>271924</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19373850" y="1457325"/>
+          <a:ext cx="3891424" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1247775</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>974951</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2085975" y="1457325"/>
+          <a:ext cx="7804376" cy="5220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>233823</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="1457325"/>
+          <a:ext cx="3891423" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>290973</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19611975" y="1457325"/>
+          <a:ext cx="3891423" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>233823</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13687425" y="1457325"/>
+          <a:ext cx="3891423" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>290973</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19611975" y="1457325"/>
+          <a:ext cx="3891423" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1371600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>1108301</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2209800" y="1457325"/>
           <a:ext cx="7804376" cy="5220000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1089,8 +1516,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1098,6 +1525,7 @@
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1106,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -1130,7 +1558,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
@@ -1704,19 +2132,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>20</v>
-      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="8" t="s">
-        <v>23</v>
-      </c>
+      <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
       <c r="G38" s="8"/>
@@ -1726,33 +2150,3116 @@
       <c r="A39" s="5">
         <v>2</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="B39" s="4"/>
       <c r="C39" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>24</v>
-      </c>
+      <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
       <c r="H39" s="8"/>
     </row>
-    <row r="40" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
         <v>3</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="24"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
         <v>22</v>
       </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44728</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="26">
+        <v>44728</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
       <c r="C40" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
         <v>25</v>
       </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G39" sqref="G39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44728</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="27" t="s">
+        <v>29</v>
+      </c>
+      <c r="E39" s="26">
+        <v>44728</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
       <c r="G40" s="8"/>
@@ -2108,20 +5615,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2129,7 +5638,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -2153,7 +5662,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
@@ -2565,6 +6074,12 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -2727,27 +6242,31 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="26">
+        <v>41</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="28">
         <v>44728</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -3127,2015 +6646,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD62"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="Y8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="12"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="15"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
-    </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="18"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>6</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>7</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>8</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>9</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>10</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>11</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>12</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>13</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>15</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>17</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>18</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>19</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>20</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>21</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>22</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>23</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>24</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>25</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
-    <mergeCell ref="R8:W20"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C38:C62">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
-      <formula>"Warning"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C62">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
-      <formula>"Bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Define!A1:A3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C38:C62</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD62"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:I33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="Y8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="12"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="15"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
-    </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="18"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>1</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="8"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>6</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>7</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>8</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>9</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>10</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>11</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>12</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>13</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>15</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>17</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>18</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>19</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>20</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>21</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>22</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>23</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>24</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>25</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
-    <mergeCell ref="R8:W20"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C38:C62">
-    <cfRule type="cellIs" dxfId="8" priority="3" operator="equal">
-      <formula>"Warning"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C62">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
-      <formula>"Bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Define!A1:A3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C38:C62</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/Tester/Template-TestCase.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/Tester/Template-TestCase.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="8580" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="8580" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Usecase 1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,12 @@
     <sheet name="Usecase 3" sheetId="4" r:id="rId3"/>
     <sheet name="Usecase 4" sheetId="3" r:id="rId4"/>
     <sheet name="Usecase 5" sheetId="6" r:id="rId5"/>
-    <sheet name="Define" sheetId="2" r:id="rId6"/>
+    <sheet name="Usecase 6" sheetId="7" r:id="rId6"/>
+    <sheet name="Usecase 7" sheetId="8" r:id="rId7"/>
+    <sheet name="Usecase 8" sheetId="9" r:id="rId8"/>
+    <sheet name="Usecase 9" sheetId="11" r:id="rId9"/>
+    <sheet name="test" sheetId="10" r:id="rId10"/>
+    <sheet name="Define" sheetId="2" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="58">
   <si>
     <t>Usecase</t>
   </si>
@@ -165,6 +170,54 @@
   </si>
   <si>
     <t>Thông tin số liệu vẫn trả về trống không chứ không báo lỗi</t>
+  </si>
+  <si>
+    <t>Quản lý văn bản</t>
+  </si>
+  <si>
+    <t>Xóa một văn bản</t>
+  </si>
+  <si>
+    <t>Màn hình khi mới bấm vào chức năng quản lý văn bản</t>
+  </si>
+  <si>
+    <t>Khi xóa một văn bản, màn hình sẽ refresh lại như lúc mới bấm chọn vào chức năng này. Nhưng Panel chứa các preview của văn bản không được hiện lên cho đến khi lăn chuột trong vùng này. Lỗi này là cùng một lỗi với Usecase 4</t>
+  </si>
+  <si>
+    <t>Màn hình khi xem một văn bản</t>
+  </si>
+  <si>
+    <t>Trương Nguyễn Quang Thái, Đặng Nghiệp Cường</t>
+  </si>
+  <si>
+    <t>Xem danh sách các lượt đăng ký của một lịch tiêm</t>
+  </si>
+  <si>
+    <t>Khi bấm vào nút Các lượt đăng ký trên một lịch tiêm, danh sách các lượt đăng ký của lịch tiêm đó trả về. Panel chứa các lượt đăng ký được gắn trong ScrollPane được set chiều cao dư quá nhiều</t>
+  </si>
+  <si>
+    <t>Màn hình chức năng quản lý lịch tiêm chủng</t>
+  </si>
+  <si>
+    <t>Quản lý lịch đăng ký tiêm chủng (Cập nhật trạng thái các lượt đăng ký)</t>
+  </si>
+  <si>
+    <t>Lọc các lịch tiêm theo một loại vaccine</t>
+  </si>
+  <si>
+    <t>Đăng ký tiêm chủng</t>
+  </si>
+  <si>
+    <t>Khi chọn một loại vacicne để lọc ra các lịch tiêm của loại vaccine này thì chức năng không hoạt động được.</t>
+  </si>
+  <si>
+    <t>Xem thông báo - tin tức</t>
+  </si>
+  <si>
+    <t>Chọn một thông báo/tin tức bất kỳ để xem</t>
+  </si>
+  <si>
+    <t>Khi chọn một thông báo/tin tức để xem thì thanh cuộn nội dung tự động cuộn xuống cuối để hiển thị ngay phần cuối của nội dung text chứ không hiển thị phần đầu.</t>
   </si>
 </sst>
 </file>
@@ -481,7 +534,172 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="30">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <u val="none"/>
+      </font>
+      <fill>
+        <patternFill>
+          <fgColor theme="0"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1217,6 +1435,330 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1676400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>2127477</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2514600" y="1457325"/>
+          <a:ext cx="7804377" cy="5220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>281448</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12506325" y="1457325"/>
+          <a:ext cx="3891423" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>281448</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20288250" y="1457325"/>
+          <a:ext cx="3891423" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>422501</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="1457325"/>
+          <a:ext cx="7804376" cy="5220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>271923</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>202500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12573000" y="1457325"/>
+          <a:ext cx="3891423" cy="2602800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412976</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1457325"/>
+          <a:ext cx="7804376" cy="5220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>412976</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1590675" y="1457325"/>
+          <a:ext cx="7804376" cy="5220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>384401</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1562100" y="1457325"/>
+          <a:ext cx="7804376" cy="5220000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2495,15 +3037,15 @@
     <mergeCell ref="R8:W20"/>
   </mergeCells>
   <conditionalFormatting sqref="C38:C62">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="3" operator="equal">
       <formula>"Warning"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38:C62">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="1" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2524,12 +3066,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2537,7 +3079,7 @@
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
     <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -2546,9 +3088,7 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>22</v>
-      </c>
+      <c r="B1" s="21"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23"/>
@@ -2571,7 +3111,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="21" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" s="22"/>
       <c r="D5" s="23"/>
@@ -3145,26 +3685,22 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
-      <c r="B38" s="24" t="s">
-        <v>23</v>
-      </c>
+      <c r="B38" s="24"/>
       <c r="C38" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>24</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D38" s="24"/>
       <c r="E38" s="26">
         <v>44728</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="26">
+      <c r="G38" s="28">
         <v>44728</v>
       </c>
       <c r="H38" s="8" t="s">
@@ -3529,6 +4065,1060 @@
       <formula>"OK"</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView topLeftCell="B11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44728</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="26">
+        <v>44728</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="20" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"Bug"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4221,6 +5811,5151 @@
       <c r="H39" s="8" t="s">
         <v>21</v>
       </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="22" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="20.5" customWidth="1"/>
+    <col min="7" max="7" width="22.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="26" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="K22" t="s">
+        <v>38</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="28">
+        <v>44728</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="17" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I36" sqref="I36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>45</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44728</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="28" t="str">
+        <f>'Usecase 4'!G38</f>
+        <v>Em không hiểu tại sao ở view khác nó tự hiện lên được còn copy đem sang view này thì nó lại không tự hiện lên, em đã thử dùng các lệnh repaint(), validate(), revalidate() các kiểu vẫn không ăn thua</v>
+      </c>
+      <c r="H38" s="27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+      <c r="K22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44728</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="28">
+        <v>44728</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="5">
+        <v>3</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="8"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="5">
+        <v>4</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="5">
+        <v>5</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="8"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="5">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="8"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="8"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="5">
+        <v>8</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="5">
+        <v>9</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="5">
+        <v>10</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="5">
+        <v>11</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="8"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="5">
+        <v>12</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="8"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="8"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="5">
+        <v>13</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="5">
+        <v>14</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="8"/>
+      <c r="E51" s="8"/>
+      <c r="F51" s="8"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="8"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="5">
+        <v>15</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="8"/>
+      <c r="E52" s="8"/>
+      <c r="F52" s="8"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="8"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="5">
+        <v>16</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="8"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="8"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="5">
+        <v>17</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="5">
+        <v>18</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8"/>
+      <c r="F55" s="8"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="8"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="5">
+        <v>19</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8"/>
+      <c r="F56" s="8"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="8"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="5">
+        <v>20</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="8"/>
+      <c r="E57" s="8"/>
+      <c r="F57" s="8"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="8"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="5">
+        <v>21</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="8"/>
+      <c r="E58" s="8"/>
+      <c r="F58" s="8"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="8"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="5">
+        <v>22</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="8"/>
+      <c r="E59" s="8"/>
+      <c r="F59" s="8"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="8"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="5">
+        <v>23</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="5">
+        <v>24</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="8"/>
+      <c r="F61" s="8"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="8"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="5">
+        <v>25</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="Y8:AD20"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="A8:I33"/>
+    <mergeCell ref="K8:P20"/>
+    <mergeCell ref="R8:W20"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
+      <formula>"Warning"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38:C62">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
+      <formula>"OK"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
+      <formula>"Bug"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Define!A1:A3</xm:f>
+          </x14:formula1>
+          <xm:sqref>C38:C62</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD62"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="4" max="4" width="41.375" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23"/>
+    </row>
+    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25">
+        <v>44728</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="23"/>
+    </row>
+    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="23"/>
+    </row>
+    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="12"/>
+      <c r="K8" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="11"/>
+      <c r="P8" s="12"/>
+      <c r="R8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="S8" s="11"/>
+      <c r="T8" s="11"/>
+      <c r="U8" s="11"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="12"/>
+      <c r="Y8" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="11"/>
+      <c r="AB8" s="11"/>
+      <c r="AC8" s="11"/>
+      <c r="AD8" s="12"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="15"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
+      <c r="P9" s="15"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="14"/>
+      <c r="T9" s="14"/>
+      <c r="U9" s="14"/>
+      <c r="V9" s="14"/>
+      <c r="W9" s="15"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="15"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="15"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="15"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="14"/>
+      <c r="AA10" s="14"/>
+      <c r="AB10" s="14"/>
+      <c r="AC10" s="14"/>
+      <c r="AD10" s="15"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="15"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="15"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="14"/>
+      <c r="T11" s="14"/>
+      <c r="U11" s="14"/>
+      <c r="V11" s="14"/>
+      <c r="W11" s="15"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="14"/>
+      <c r="AA11" s="14"/>
+      <c r="AB11" s="14"/>
+      <c r="AC11" s="14"/>
+      <c r="AD11" s="15"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="15"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="15"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="14"/>
+      <c r="T12" s="14"/>
+      <c r="U12" s="14"/>
+      <c r="V12" s="14"/>
+      <c r="W12" s="15"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="14"/>
+      <c r="AA12" s="14"/>
+      <c r="AB12" s="14"/>
+      <c r="AC12" s="14"/>
+      <c r="AD12" s="15"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="15"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="15"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="14"/>
+      <c r="T13" s="14"/>
+      <c r="U13" s="14"/>
+      <c r="V13" s="14"/>
+      <c r="W13" s="15"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="14"/>
+      <c r="AA13" s="14"/>
+      <c r="AB13" s="14"/>
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="15"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="15"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="14"/>
+      <c r="T14" s="14"/>
+      <c r="U14" s="14"/>
+      <c r="V14" s="14"/>
+      <c r="W14" s="15"/>
+      <c r="Y14" s="13"/>
+      <c r="Z14" s="14"/>
+      <c r="AA14" s="14"/>
+      <c r="AB14" s="14"/>
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="15"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="15"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="15"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="14"/>
+      <c r="W15" s="15"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="14"/>
+      <c r="AA15" s="14"/>
+      <c r="AB15" s="14"/>
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="15"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="15"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="15"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="14"/>
+      <c r="T16" s="14"/>
+      <c r="U16" s="14"/>
+      <c r="V16" s="14"/>
+      <c r="W16" s="15"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="14"/>
+      <c r="AA16" s="14"/>
+      <c r="AB16" s="14"/>
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="15"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="15"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="15"/>
+      <c r="R17" s="13"/>
+      <c r="S17" s="14"/>
+      <c r="T17" s="14"/>
+      <c r="U17" s="14"/>
+      <c r="V17" s="14"/>
+      <c r="W17" s="15"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="14"/>
+      <c r="AA17" s="14"/>
+      <c r="AB17" s="14"/>
+      <c r="AC17" s="14"/>
+      <c r="AD17" s="15"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="15"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="15"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="14"/>
+      <c r="U18" s="14"/>
+      <c r="V18" s="14"/>
+      <c r="W18" s="15"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="14"/>
+      <c r="AA18" s="14"/>
+      <c r="AB18" s="14"/>
+      <c r="AC18" s="14"/>
+      <c r="AD18" s="15"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="15"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="14"/>
+      <c r="T19" s="14"/>
+      <c r="U19" s="14"/>
+      <c r="V19" s="14"/>
+      <c r="W19" s="15"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="14"/>
+      <c r="AA19" s="14"/>
+      <c r="AB19" s="14"/>
+      <c r="AC19" s="14"/>
+      <c r="AD19" s="15"/>
+    </row>
+    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="15"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" s="18"/>
+      <c r="R20" s="16"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="17"/>
+      <c r="U20" s="17"/>
+      <c r="V20" s="17"/>
+      <c r="W20" s="18"/>
+      <c r="Y20" s="16"/>
+      <c r="Z20" s="17"/>
+      <c r="AA20" s="17"/>
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="17"/>
+      <c r="AD20" s="18"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="15"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="15"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="14"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="15"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="15"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="15"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="15"/>
+    </row>
+    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="15"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="15"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="15"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="15"/>
+    </row>
+    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="18"/>
+    </row>
+    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H36" s="20"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="5">
+        <v>1</v>
+      </c>
+      <c r="B38" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44728</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="28">
+        <v>44728</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="5">
+        <v>2</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="8"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="5">
@@ -4586,20 +11321,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="22.125" customWidth="1"/>
     <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4607,7 +11344,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>33</v>
+        <v>55</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -5043,12 +11780,6 @@
       <c r="G22" s="14"/>
       <c r="H22" s="14"/>
       <c r="I22" s="15"/>
-      <c r="K22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
@@ -5211,1062 +11942,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="63" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="C38" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>36</v>
+      <c r="D38" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="26">
+        <v>44728</v>
       </c>
       <c r="F38" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G38" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="5">
-        <v>2</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="8"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="5">
-        <v>3</v>
-      </c>
-      <c r="B40" s="4"/>
-      <c r="C40" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="5">
-        <v>4</v>
-      </c>
-      <c r="B41" s="4"/>
-      <c r="C41" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="8"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="5">
-        <v>5</v>
-      </c>
-      <c r="B42" s="4"/>
-      <c r="C42" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="8"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="5">
-        <v>6</v>
-      </c>
-      <c r="B43" s="4"/>
-      <c r="C43" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="5">
-        <v>7</v>
-      </c>
-      <c r="B44" s="4"/>
-      <c r="C44" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="8"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="5">
-        <v>8</v>
-      </c>
-      <c r="B45" s="4"/>
-      <c r="C45" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="5">
-        <v>9</v>
-      </c>
-      <c r="B46" s="4"/>
-      <c r="C46" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="5">
-        <v>10</v>
-      </c>
-      <c r="B47" s="4"/>
-      <c r="C47" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="5">
-        <v>11</v>
-      </c>
-      <c r="B48" s="4"/>
-      <c r="C48" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="8"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="5">
-        <v>12</v>
-      </c>
-      <c r="B49" s="4"/>
-      <c r="C49" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="5">
-        <v>13</v>
-      </c>
-      <c r="B50" s="4"/>
-      <c r="C50" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="5">
-        <v>14</v>
-      </c>
-      <c r="B51" s="4"/>
-      <c r="C51" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="5">
-        <v>15</v>
-      </c>
-      <c r="B52" s="4"/>
-      <c r="C52" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="8"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="5">
-        <v>16</v>
-      </c>
-      <c r="B53" s="4"/>
-      <c r="C53" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="8"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="5">
-        <v>17</v>
-      </c>
-      <c r="B54" s="4"/>
-      <c r="C54" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="8"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="5">
-        <v>18</v>
-      </c>
-      <c r="B55" s="4"/>
-      <c r="C55" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="8"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="5">
-        <v>19</v>
-      </c>
-      <c r="B56" s="4"/>
-      <c r="C56" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="8"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="5">
-        <v>20</v>
-      </c>
-      <c r="B57" s="4"/>
-      <c r="C57" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="8"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="5">
-        <v>21</v>
-      </c>
-      <c r="B58" s="4"/>
-      <c r="C58" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="8"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="5">
-        <v>22</v>
-      </c>
-      <c r="B59" s="4"/>
-      <c r="C59" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="5">
-        <v>23</v>
-      </c>
-      <c r="B60" s="4"/>
-      <c r="C60" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="8"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="5">
-        <v>24</v>
-      </c>
-      <c r="B61" s="4"/>
-      <c r="C61" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="8"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>25</v>
-      </c>
-      <c r="B62" s="4"/>
-      <c r="C62" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="8"/>
-    </row>
-  </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="Y8:AD20"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A8:I33"/>
-    <mergeCell ref="K8:P20"/>
-    <mergeCell ref="R8:W20"/>
-  </mergeCells>
-  <conditionalFormatting sqref="C38:C62">
-    <cfRule type="cellIs" dxfId="11" priority="3" operator="equal">
-      <formula>"Warning"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C38:C62">
-    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
-      <formula>"OK"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
-      <formula>"Bug"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Define!A1:A3</xm:f>
-          </x14:formula1>
-          <xm:sqref>C38:C62</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AD62"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23"/>
-    </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25">
-        <v>44728</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="23"/>
-    </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="23"/>
-    </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="12"/>
-      <c r="K8" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="12"/>
-      <c r="R8" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="S8" s="11"/>
-      <c r="T8" s="11"/>
-      <c r="U8" s="11"/>
-      <c r="V8" s="11"/>
-      <c r="W8" s="12"/>
-      <c r="Y8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="Z8" s="11"/>
-      <c r="AA8" s="11"/>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="12"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="15"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
-      <c r="P9" s="15"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="14"/>
-      <c r="T9" s="14"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="14"/>
-      <c r="W9" s="15"/>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="14"/>
-      <c r="AA9" s="14"/>
-      <c r="AB9" s="14"/>
-      <c r="AC9" s="14"/>
-      <c r="AD9" s="15"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="15"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
-      <c r="P10" s="15"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="15"/>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="14"/>
-      <c r="AA10" s="14"/>
-      <c r="AB10" s="14"/>
-      <c r="AC10" s="14"/>
-      <c r="AD10" s="15"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="15"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="14"/>
-      <c r="T11" s="14"/>
-      <c r="U11" s="14"/>
-      <c r="V11" s="14"/>
-      <c r="W11" s="15"/>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="14"/>
-      <c r="AA11" s="14"/>
-      <c r="AB11" s="14"/>
-      <c r="AC11" s="14"/>
-      <c r="AD11" s="15"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="15"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-      <c r="O12" s="14"/>
-      <c r="P12" s="15"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="14"/>
-      <c r="T12" s="14"/>
-      <c r="U12" s="14"/>
-      <c r="V12" s="14"/>
-      <c r="W12" s="15"/>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="14"/>
-      <c r="AA12" s="14"/>
-      <c r="AB12" s="14"/>
-      <c r="AC12" s="14"/>
-      <c r="AD12" s="15"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="15"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14"/>
-      <c r="U13" s="14"/>
-      <c r="V13" s="14"/>
-      <c r="W13" s="15"/>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="14"/>
-      <c r="AA13" s="14"/>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="15"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="15"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-      <c r="O14" s="14"/>
-      <c r="P14" s="15"/>
-      <c r="R14" s="13"/>
-      <c r="S14" s="14"/>
-      <c r="T14" s="14"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="14"/>
-      <c r="W14" s="15"/>
-      <c r="Y14" s="13"/>
-      <c r="Z14" s="14"/>
-      <c r="AA14" s="14"/>
-      <c r="AB14" s="14"/>
-      <c r="AC14" s="14"/>
-      <c r="AD14" s="15"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="15"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-      <c r="R15" s="13"/>
-      <c r="S15" s="14"/>
-      <c r="T15" s="14"/>
-      <c r="U15" s="14"/>
-      <c r="V15" s="14"/>
-      <c r="W15" s="15"/>
-      <c r="Y15" s="13"/>
-      <c r="Z15" s="14"/>
-      <c r="AA15" s="14"/>
-      <c r="AB15" s="14"/>
-      <c r="AC15" s="14"/>
-      <c r="AD15" s="15"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
-      <c r="O16" s="14"/>
-      <c r="P16" s="15"/>
-      <c r="R16" s="13"/>
-      <c r="S16" s="14"/>
-      <c r="T16" s="14"/>
-      <c r="U16" s="14"/>
-      <c r="V16" s="14"/>
-      <c r="W16" s="15"/>
-      <c r="Y16" s="13"/>
-      <c r="Z16" s="14"/>
-      <c r="AA16" s="14"/>
-      <c r="AB16" s="14"/>
-      <c r="AC16" s="14"/>
-      <c r="AD16" s="15"/>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="15"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-      <c r="R17" s="13"/>
-      <c r="S17" s="14"/>
-      <c r="T17" s="14"/>
-      <c r="U17" s="14"/>
-      <c r="V17" s="14"/>
-      <c r="W17" s="15"/>
-      <c r="Y17" s="13"/>
-      <c r="Z17" s="14"/>
-      <c r="AA17" s="14"/>
-      <c r="AB17" s="14"/>
-      <c r="AC17" s="14"/>
-      <c r="AD17" s="15"/>
-    </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="15"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" s="15"/>
-      <c r="R18" s="13"/>
-      <c r="S18" s="14"/>
-      <c r="T18" s="14"/>
-      <c r="U18" s="14"/>
-      <c r="V18" s="14"/>
-      <c r="W18" s="15"/>
-      <c r="Y18" s="13"/>
-      <c r="Z18" s="14"/>
-      <c r="AA18" s="14"/>
-      <c r="AB18" s="14"/>
-      <c r="AC18" s="14"/>
-      <c r="AD18" s="15"/>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="15"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="T19" s="14"/>
-      <c r="U19" s="14"/>
-      <c r="V19" s="14"/>
-      <c r="W19" s="15"/>
-      <c r="Y19" s="13"/>
-      <c r="Z19" s="14"/>
-      <c r="AA19" s="14"/>
-      <c r="AB19" s="14"/>
-      <c r="AC19" s="14"/>
-      <c r="AD19" s="15"/>
-    </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="15"/>
-      <c r="K20" s="16"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="17"/>
-      <c r="N20" s="17"/>
-      <c r="O20" s="17"/>
-      <c r="P20" s="18"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="18"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="17"/>
-      <c r="AA20" s="17"/>
-      <c r="AB20" s="17"/>
-      <c r="AC20" s="17"/>
-      <c r="AD20" s="18"/>
-    </row>
-    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="15"/>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="15"/>
-      <c r="K22" t="s">
-        <v>38</v>
-      </c>
-      <c r="R22" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="15"/>
-    </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
-      <c r="F24" s="14"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="15"/>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A25" s="13"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A26" s="13"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="G27" s="14"/>
-      <c r="H27" s="14"/>
-      <c r="I27" s="15"/>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="14"/>
-      <c r="H28" s="14"/>
-      <c r="I28" s="15"/>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A29" s="13"/>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
-      <c r="G29" s="14"/>
-      <c r="H29" s="14"/>
-      <c r="I29" s="15"/>
-    </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14"/>
-      <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="14"/>
-      <c r="F30" s="14"/>
-      <c r="G30" s="14"/>
-      <c r="H30" s="14"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A31" s="13"/>
-      <c r="B31" s="14"/>
-      <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="15"/>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-      <c r="G32" s="14"/>
-      <c r="H32" s="14"/>
-      <c r="I32" s="15"/>
-    </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="16"/>
-      <c r="B33" s="17"/>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="18"/>
-    </row>
-    <row r="35" spans="1:9" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B36" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H36" s="20"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="5">
-        <v>1</v>
-      </c>
-      <c r="B38" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G38" s="28">
-        <v>44728</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>21</v>
-      </c>
+      <c r="G38" s="28"/>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
@@ -6644,34 +12340,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/Tester/Template-TestCase.xlsx
+++ b/VACCINATION_MANAGEMENT/out/production/VACCINATION_MANAGEMENT/Tester/Template-TestCase.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Projects\VACCINATION\VACCINATION_MANAGEMENT\src\Tester\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VACCINATION\VACCINATION_MANAGEMENT\src\Tester\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{570DE4D3-00FA-4242-8577-BCF565458713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="8580" activeTab="7"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Usecase 1" sheetId="5" r:id="rId1"/>
-    <sheet name="Usecase 2" sheetId="4" r:id="rId2"/>
-    <sheet name="Usecase 3" sheetId="3" r:id="rId3"/>
-    <sheet name="Usecase 4" sheetId="6" r:id="rId4"/>
-    <sheet name="Usecase 5" sheetId="7" r:id="rId5"/>
-    <sheet name="Usecase 6" sheetId="8" r:id="rId6"/>
-    <sheet name="Usecase 7" sheetId="9" r:id="rId7"/>
-    <sheet name="Usecase 8" sheetId="11" r:id="rId8"/>
+    <sheet name="Tạo tài khoản đơn vị tiêm chủng" sheetId="5" r:id="rId1"/>
+    <sheet name="Ban hành văn bản thông tin" sheetId="4" r:id="rId2"/>
+    <sheet name="Tra cứu thông tin tiêm chủng" sheetId="3" r:id="rId3"/>
+    <sheet name="Thông kê số liệu tiêm chủng" sheetId="6" r:id="rId4"/>
+    <sheet name="Quản lý văn bản" sheetId="7" r:id="rId5"/>
+    <sheet name="Quản lý lịch đăng ký tiêm chủng" sheetId="8" r:id="rId6"/>
+    <sheet name="Đăng ký tiêm chủng" sheetId="9" r:id="rId7"/>
+    <sheet name="Xem thông báo - tin tức" sheetId="11" r:id="rId8"/>
     <sheet name="Copy" sheetId="10" r:id="rId9"/>
     <sheet name="Define" sheetId="2" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="58">
   <si>
     <t>Usecase</t>
   </si>
@@ -215,23 +216,26 @@
   <si>
     <t>Khi chọn một thông báo/tin tức để xem thì thanh cuộn nội dung tự động cuộn xuống cuối để hiển thị ngay phần cuối của nội dung text chứ không hiển thị phần đầu.</t>
   </si>
+  <si>
+    <t>Thống kê số liệu tiêm chủng</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -239,7 +243,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -528,7 +532,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="27">
     <dxf>
@@ -858,7 +862,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -901,7 +911,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -939,7 +955,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -977,7 +999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1020,7 +1048,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1058,7 +1092,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1096,7 +1136,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1139,7 +1185,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1177,7 +1229,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1215,7 +1273,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1258,7 +1322,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1296,7 +1366,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1334,7 +1410,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1377,7 +1459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1415,7 +1503,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1458,7 +1552,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1496,7 +1596,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1539,7 +1645,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1861,24 +1973,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1889,8 +2001,8 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1901,8 +2013,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1912,7 +2024,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -2269,7 +2381,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -2430,7 +2542,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2455,7 +2567,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -2481,7 +2593,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -2873,7 +2985,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
@@ -2886,14 +2998,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -2916,24 +3028,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2944,8 +3056,8 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2956,8 +3068,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -2967,7 +3079,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -3324,7 +3436,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -3485,7 +3597,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -3510,7 +3622,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -3536,7 +3648,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -3562,7 +3674,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="5">
         <v>2</v>
       </c>
@@ -3940,7 +4052,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
@@ -3953,22 +4065,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="20.5" customWidth="1"/>
-    <col min="7" max="7" width="22.625" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" customWidth="1"/>
+    <col min="7" max="7" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3979,8 +4091,8 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -3991,8 +4103,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -4002,7 +4114,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -4359,7 +4471,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -4526,7 +4638,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -4551,7 +4663,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -4577,7 +4689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="126" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="120" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -4969,7 +5081,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
@@ -4982,36 +5094,36 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>32</v>
+        <v>57</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -5022,8 +5134,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -5033,7 +5145,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -5390,7 +5502,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -5557,7 +5669,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -5582,7 +5694,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -5608,7 +5720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -6000,7 +6112,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0300-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
@@ -6013,24 +6125,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6041,8 +6153,8 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -6053,8 +6165,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -6064,7 +6176,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -6421,7 +6533,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -6588,7 +6700,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -6613,7 +6725,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -6639,7 +6751,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -6659,7 +6771,7 @@
         <v>24</v>
       </c>
       <c r="G38" s="13" t="str">
-        <f>'Usecase 3'!G38</f>
+        <f>'Tra cứu thông tin tiêm chủng'!G38</f>
         <v>Em không hiểu tại sao ở view khác nó tự hiện lên được còn copy đem sang view này thì nó lại không tự hiện lên, em đã thử dùng các lệnh repaint(), validate(), revalidate() các kiểu vẫn không ăn thua</v>
       </c>
       <c r="H38" s="12" t="s">
@@ -7032,7 +7144,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0400-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
@@ -7045,24 +7157,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7073,8 +7185,8 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -7085,8 +7197,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -7096,7 +7208,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -7453,7 +7565,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -7617,7 +7729,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -7642,7 +7754,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -7668,7 +7780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -8060,7 +8172,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0500-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
@@ -8073,24 +8185,24 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -8101,8 +8213,8 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -8113,8 +8225,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -8124,7 +8236,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -8481,7 +8593,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -8642,7 +8754,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -8667,7 +8779,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -8693,7 +8805,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -9085,7 +9197,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0600-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
@@ -9098,24 +9210,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D26" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -9126,8 +9238,8 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -9138,8 +9250,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -9149,7 +9261,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -9506,7 +9618,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -9667,7 +9779,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -9692,7 +9804,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -9718,7 +9830,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="63" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="60" x14ac:dyDescent="0.25">
       <c r="A38" s="5">
         <v>1</v>
       </c>
@@ -10106,7 +10218,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0700-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
@@ -10119,24 +10231,24 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AD62"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
-    <col min="4" max="4" width="41.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" customWidth="1"/>
+    <col min="5" max="5" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -10145,8 +10257,8 @@
       <c r="D1" s="26"/>
       <c r="E1" s="27"/>
     </row>
-    <row r="2" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -10157,8 +10269,8 @@
       <c r="D3" s="26"/>
       <c r="E3" s="27"/>
     </row>
-    <row r="4" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -10168,7 +10280,7 @@
       <c r="C5" s="26"/>
       <c r="D5" s="27"/>
     </row>
-    <row r="7" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>3</v>
@@ -10525,7 +10637,7 @@
       <c r="AC19" s="18"/>
       <c r="AD19" s="19"/>
     </row>
-    <row r="20" spans="1:30" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
@@ -10686,7 +10798,7 @@
       <c r="H32" s="18"/>
       <c r="I32" s="19"/>
     </row>
-    <row r="33" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -10711,7 +10823,7 @@
       </c>
       <c r="H36" s="24"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>7</v>
       </c>
@@ -11124,7 +11236,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0800-000000000000}">
           <x14:formula1>
             <xm:f>Define!A1:A3</xm:f>
           </x14:formula1>
